--- a/public/bossayfa1.xlsx
+++ b/public/bossayfa1.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ziya\Desktop\ÇALIŞMA KAĞITLARI_MEZİD FİİLLER\wordcardarabıc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F6AB27-E311-45F1-821D-DAC7C52B7107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DF9CEF-6D63-4E5C-982D-321654A72E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{530088D5-C0D1-4B54-9791-CDAD199E92DF}"/>
   </bookViews>
   <sheets>
-    <sheet name="13 FİİL ÇEKİMLERİ" sheetId="1" r:id="rId1"/>
+    <sheet name="99İSMİ" sheetId="2" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'13 FİİL ÇEKİMLERİ'!$A$1:$B$2</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
   <si>
     <t>arabic_word</t>
   </si>
@@ -47,17 +44,605 @@
     <t>turkish_meaning</t>
   </si>
   <si>
-    <t>HOŞGELDİNİZ</t>
-  </si>
-  <si>
-    <t>WELCOME</t>
+    <t>Er-Rahmân</t>
+  </si>
+  <si>
+    <t>Rahmetiyle muamele eden, esirgeyen.</t>
+  </si>
+  <si>
+    <t>Er-Rahim</t>
+  </si>
+  <si>
+    <t>Merhamet eden, bağışlayan.</t>
+  </si>
+  <si>
+    <t>El-Melik</t>
+  </si>
+  <si>
+    <t>Mülkün gerçek sahibi, mülk ve saltanatı devamlı olan.</t>
+  </si>
+  <si>
+    <t>El-Kuddûs</t>
+  </si>
+  <si>
+    <t>Her türlü eksiklik ve ayıplardan münezzeh olan.</t>
+  </si>
+  <si>
+    <t>Es-Selâm</t>
+  </si>
+  <si>
+    <t>Kullarını selâmete çıkaran.</t>
+  </si>
+  <si>
+    <t>El-Mü’min</t>
+  </si>
+  <si>
+    <t>Gönüllerde iman ışığı uyandıran.</t>
+  </si>
+  <si>
+    <t>El-Müheymin</t>
+  </si>
+  <si>
+    <t>Gözeten ve koruyan.</t>
+  </si>
+  <si>
+    <t>El-Aziz</t>
+  </si>
+  <si>
+    <t>Mağlup edilmesi asla mümkün olmayan.</t>
+  </si>
+  <si>
+    <t>El-Cebbâr</t>
+  </si>
+  <si>
+    <t>İstediğini mutlak yapan, dilediğine muktedir olan.</t>
+  </si>
+  <si>
+    <t>El-Mütekebbir</t>
+  </si>
+  <si>
+    <t>Her şeyde büyüklüğünü gösteren.</t>
+  </si>
+  <si>
+    <t>El-Hâlık</t>
+  </si>
+  <si>
+    <t>Her şeyi yoktan var eden.</t>
+  </si>
+  <si>
+    <t>El-Bârî</t>
+  </si>
+  <si>
+    <t>Her şeyi uygun bir tarzda ve birbirine uygun yaratan.</t>
+  </si>
+  <si>
+    <t>El-Musavvir</t>
+  </si>
+  <si>
+    <t>Her şeye bir şekil ve hususiyet verip tasvir eden.</t>
+  </si>
+  <si>
+    <t>El-Gaffâr</t>
+  </si>
+  <si>
+    <t>Kullarının günahlarını örten, günahlarını bağışlayan.</t>
+  </si>
+  <si>
+    <t>El-Kahhâr</t>
+  </si>
+  <si>
+    <t>Her şeye, her istediğini yapacak surette galip ve hakim olan.</t>
+  </si>
+  <si>
+    <t>El-Vehhâb</t>
+  </si>
+  <si>
+    <t>Çok fazla ihsan eden.</t>
+  </si>
+  <si>
+    <t>Er-Rezzâk</t>
+  </si>
+  <si>
+    <t>Bütün mahlukatın rızkını veren ve ihtiyacını karşılayan.</t>
+  </si>
+  <si>
+    <t>El-Fettâh</t>
+  </si>
+  <si>
+    <t>Her türlü zorlukları kolaylaştıran, darlıktan kurtaran.</t>
+  </si>
+  <si>
+    <t>El-Alîm</t>
+  </si>
+  <si>
+    <t>Her şeyi en ince noktasına kadar bilen, ilmi ebedi ve ezeli olan.</t>
+  </si>
+  <si>
+    <t>El-Kâbıd</t>
+  </si>
+  <si>
+    <t>Dilediğine darlık veren, sıkan, daraltan.</t>
+  </si>
+  <si>
+    <t>El-Bâsıt</t>
+  </si>
+  <si>
+    <t>Dilediğine bolluk veren, açan, genişleten.</t>
+  </si>
+  <si>
+    <t>El-Hâfıd</t>
+  </si>
+  <si>
+    <t>Yukarıdan aşağıya indiren, alçaltan.</t>
+  </si>
+  <si>
+    <t>Er-Râfî</t>
+  </si>
+  <si>
+    <t>Yukarı kaldıran, yükselten.</t>
+  </si>
+  <si>
+    <t>El-Muiz</t>
+  </si>
+  <si>
+    <t>İzzet verip ağırlayan.</t>
+  </si>
+  <si>
+    <t>El-Muzil</t>
+  </si>
+  <si>
+    <t>Zillete düşüren, hor ve hakir eden.</t>
+  </si>
+  <si>
+    <t>Es-Semî</t>
+  </si>
+  <si>
+    <t>Her şeyi işiten.</t>
+  </si>
+  <si>
+    <t>El-Basîr</t>
+  </si>
+  <si>
+    <t>Her şeyi gören.</t>
+  </si>
+  <si>
+    <t>El-Hakem</t>
+  </si>
+  <si>
+    <t>Her işte hikmet ve adaletle hükmeden.</t>
+  </si>
+  <si>
+    <t>El-Adl</t>
+  </si>
+  <si>
+    <t>Son derece adaletli olan.</t>
+  </si>
+  <si>
+    <t>El-Latîf</t>
+  </si>
+  <si>
+    <t>İşlerin bütün inceliklerini bilen.</t>
+  </si>
+  <si>
+    <t>El-Habîr</t>
+  </si>
+  <si>
+    <t>Her şeyin iç yüzünden, gizli tarafından haberdar olan.</t>
+  </si>
+  <si>
+    <t>El-Halîm</t>
+  </si>
+  <si>
+    <t>Yumuşak davranan, hilmi çok olan.</t>
+  </si>
+  <si>
+    <t>El-Azîm</t>
+  </si>
+  <si>
+    <t>Pek azametli ve büyük olan.</t>
+  </si>
+  <si>
+    <t>El-Gafûr</t>
+  </si>
+  <si>
+    <t>Çok bağışlayan, magfireti çok olan.</t>
+  </si>
+  <si>
+    <t>Eş-Şekûr</t>
+  </si>
+  <si>
+    <t>Kendi rızası için yapılan iyi işleri, ziyadesiyle mükafatlandıran.</t>
+  </si>
+  <si>
+    <t>El-Aliyy</t>
+  </si>
+  <si>
+    <t>Çok yüce. Pek yüksek olan.</t>
+  </si>
+  <si>
+    <t>El-Kebîr</t>
+  </si>
+  <si>
+    <t>Büyüklüğünde hudut olmayan.</t>
+  </si>
+  <si>
+    <t>El-Hafîz</t>
+  </si>
+  <si>
+    <t>Yapılan işleri bütün tafsilatıyla, ayrıntılarıyla tutan.</t>
+  </si>
+  <si>
+    <t>El-Mukît</t>
+  </si>
+  <si>
+    <t>Yaratılmış her şeyin azığını veren.</t>
+  </si>
+  <si>
+    <t>El-Hasîb</t>
+  </si>
+  <si>
+    <t>Herkesin hayatı boyunca yaptıklarının hesabını soran.</t>
+  </si>
+  <si>
+    <t>El-Celîl</t>
+  </si>
+  <si>
+    <t>Azamet sahibi olan, ululuk sahibi olan.</t>
+  </si>
+  <si>
+    <t>El-Kerîm</t>
+  </si>
+  <si>
+    <t>Çok ikram edici. Keremi ve mağfireti bol olan.</t>
+  </si>
+  <si>
+    <t>Er-Rakîb</t>
+  </si>
+  <si>
+    <t>Bütün varlıklar üzerine gözcü olan.</t>
+  </si>
+  <si>
+    <t>El-Mücîb</t>
+  </si>
+  <si>
+    <t>Dua edenlerin dualarını kabul eden, isteklerini veren.</t>
+  </si>
+  <si>
+    <t>El-Vâsî</t>
+  </si>
+  <si>
+    <t>Lütfu bol olan.</t>
+  </si>
+  <si>
+    <t>El-Hakîm</t>
+  </si>
+  <si>
+    <t>Emirleri, kelamı ve bütün işleri hikmetli olan.</t>
+  </si>
+  <si>
+    <t>El-Vedûd</t>
+  </si>
+  <si>
+    <t>İyi kullarını seven, sevilmeye ve dostluğa hakkıyla layık olan.</t>
+  </si>
+  <si>
+    <t>El-Mecîd</t>
+  </si>
+  <si>
+    <t>Şanı çok büyük ve çok yüksek olan.</t>
+  </si>
+  <si>
+    <t>El-Bâis</t>
+  </si>
+  <si>
+    <t>Ölüleri diriltip kabirlerinden çıkaran.</t>
+  </si>
+  <si>
+    <t>Eş-Şehîd</t>
+  </si>
+  <si>
+    <t>Her zaman ve her yerde hazır ve nazır olan.</t>
+  </si>
+  <si>
+    <t>El-Hakk</t>
+  </si>
+  <si>
+    <t>Vacib"ul vücut olan, varlığı hiç değişmeden duran.</t>
+  </si>
+  <si>
+    <t>El-Vekîl</t>
+  </si>
+  <si>
+    <t>İşlerini kendisine bırakanların işini düzelten ve her şeyin iyisini temin eden.</t>
+  </si>
+  <si>
+    <t>El-Kaviyy</t>
+  </si>
+  <si>
+    <t>Pek kuvvetli. Pek güçlü olan.</t>
+  </si>
+  <si>
+    <t>El-Metîn</t>
+  </si>
+  <si>
+    <t>Çok sağlam olan.</t>
+  </si>
+  <si>
+    <t>El-Veliyy</t>
+  </si>
+  <si>
+    <t>İyi kullarına, gerçek mü’minlere dost olan.</t>
+  </si>
+  <si>
+    <t>El-Hamîd</t>
+  </si>
+  <si>
+    <t>Her türlü hamd ve övgüye layık olan.</t>
+  </si>
+  <si>
+    <t>El-Muhsî</t>
+  </si>
+  <si>
+    <t>İstisnasız her şeyin tek tek sayısını bilen.</t>
+  </si>
+  <si>
+    <t>El-Mübdi</t>
+  </si>
+  <si>
+    <t>Bütün mahlukatı maddesiz ve örneksiz olarak ilk baştan yaratan.</t>
+  </si>
+  <si>
+    <t>El-Muid</t>
+  </si>
+  <si>
+    <t>Yaratılmışları yok ettikten sonra tekrar yaratan.</t>
+  </si>
+  <si>
+    <t>El-Muhyî</t>
+  </si>
+  <si>
+    <t>İhya eden, dirilten, can bağışlayan, sağlık veren.</t>
+  </si>
+  <si>
+    <t>El-Mümît</t>
+  </si>
+  <si>
+    <t>Ölümü yaratan, öldüren.</t>
+  </si>
+  <si>
+    <t>El-Hayy</t>
+  </si>
+  <si>
+    <t>Diri, tam ve mükemmel manasıyla hayat sahibi.</t>
+  </si>
+  <si>
+    <t>El-Kayyûm</t>
+  </si>
+  <si>
+    <t>Gökleri, yeri ve her şeyi tutan.</t>
+  </si>
+  <si>
+    <t>El-Vâcid</t>
+  </si>
+  <si>
+    <t>İstediğini, istediği vakit bulan.</t>
+  </si>
+  <si>
+    <t>El-Mâcid</t>
+  </si>
+  <si>
+    <t>Kadri büyük, keremi bol olan.</t>
+  </si>
+  <si>
+    <t>El-Vâhid</t>
+  </si>
+  <si>
+    <t>Tek olan.</t>
+  </si>
+  <si>
+    <t>Es-Samed</t>
+  </si>
+  <si>
+    <t>Sığınacak tek dayanak olan.</t>
+  </si>
+  <si>
+    <t>El-Kâdir</t>
+  </si>
+  <si>
+    <t>Her şeye gücü yeten, her istediğini yapmaya kâdir olan.</t>
+  </si>
+  <si>
+    <t>El-Muktedir</t>
+  </si>
+  <si>
+    <t>Kuvvet ve kudret sahipleri üzerinde dilediği gibi tasarruf eden.</t>
+  </si>
+  <si>
+    <t>El-Mukaddim</t>
+  </si>
+  <si>
+    <t>İstediğini ileri geçirip, öne alan.</t>
+  </si>
+  <si>
+    <t>El-Muahhir</t>
+  </si>
+  <si>
+    <t>İstediğini geri koyan, arkaya bırakan.</t>
+  </si>
+  <si>
+    <t>El-Evvel</t>
+  </si>
+  <si>
+    <t>Başlangıcı olmayan, ilk olan.</t>
+  </si>
+  <si>
+    <t>El-Âhir</t>
+  </si>
+  <si>
+    <t>Bitişi olmayan, son olan.</t>
+  </si>
+  <si>
+    <t>Ez-Zâhir</t>
+  </si>
+  <si>
+    <t>Açıkca bilinen, âşikâr olan.</t>
+  </si>
+  <si>
+    <t>El-Bâtın</t>
+  </si>
+  <si>
+    <t>Gizli olan.</t>
+  </si>
+  <si>
+    <t>El-Vâlî</t>
+  </si>
+  <si>
+    <t>Her şeyi tek başına idare eden.</t>
+  </si>
+  <si>
+    <t>El-Müteâlî</t>
+  </si>
+  <si>
+    <t>Aklın mümkün gördüğü her şeyden, her hâl ve tavırdan münezzeh olan.</t>
+  </si>
+  <si>
+    <t>El-Berr</t>
+  </si>
+  <si>
+    <t>Kullarına iyilik ve ihsanı, nimetleri bol olan.</t>
+  </si>
+  <si>
+    <t>Et-Tevvâb</t>
+  </si>
+  <si>
+    <t>Tövbeleri kabul eden.</t>
+  </si>
+  <si>
+    <t>El-Müntakim</t>
+  </si>
+  <si>
+    <t>Suçluları adaletiyle cezalandırıp intikam alan.</t>
+  </si>
+  <si>
+    <t>El-Afüvv</t>
+  </si>
+  <si>
+    <t>Affı ve rahmeti çok olan, bağışlayan.</t>
+  </si>
+  <si>
+    <t>Er-Raûf</t>
+  </si>
+  <si>
+    <t>Pek acıyan, lütuf ve merhametle pek esirgeyen.</t>
+  </si>
+  <si>
+    <t>Mâlikü’l-Mülk</t>
+  </si>
+  <si>
+    <t>Mülkün ebedi sahibi olan.</t>
+  </si>
+  <si>
+    <t>Zü’l- Celal-i ve’l-İkram</t>
+  </si>
+  <si>
+    <t>Her türlü büyüklüğün, her türlü keremin sahibi olan.</t>
+  </si>
+  <si>
+    <t>El-Muksıt</t>
+  </si>
+  <si>
+    <t>Bütün işleri birbirine uygun ve denk yapan.</t>
+  </si>
+  <si>
+    <t>El-Câmî</t>
+  </si>
+  <si>
+    <t>İstediğini istediği zaman istediği yerde toplayan.</t>
+  </si>
+  <si>
+    <t>El-Ganîyy</t>
+  </si>
+  <si>
+    <t>Çok zengin olan.</t>
+  </si>
+  <si>
+    <t>El-Muğnî</t>
+  </si>
+  <si>
+    <t>İstediğini zengin eden.</t>
+  </si>
+  <si>
+    <t>El-Mânî</t>
+  </si>
+  <si>
+    <t>Bazı şeylerin meydana gelmesine müsaade etmeyen, engelleyen.</t>
+  </si>
+  <si>
+    <t>Ed-Dâr</t>
+  </si>
+  <si>
+    <t>Elem ve zarar verecek şeyleri yaratan, hüsrana ugratan.</t>
+  </si>
+  <si>
+    <t>En-Nâfi</t>
+  </si>
+  <si>
+    <t>Hayır ve menfaat verecek şeyleri yaratan.</t>
+  </si>
+  <si>
+    <t>En-Nûr</t>
+  </si>
+  <si>
+    <t>Alemleri nurlandıran.</t>
+  </si>
+  <si>
+    <t>El-Hâdî</t>
+  </si>
+  <si>
+    <t>Hidayete ve doğru yola erdiren.</t>
+  </si>
+  <si>
+    <t>El-Bedî</t>
+  </si>
+  <si>
+    <t>Örneksiz, misilsiz, hayret verici nice âlemler icad eden.</t>
+  </si>
+  <si>
+    <t>El-Bâki</t>
+  </si>
+  <si>
+    <t>Varlığının sonu bulunmayan, ebedi olan.</t>
+  </si>
+  <si>
+    <t>El-Vâris</t>
+  </si>
+  <si>
+    <t>Servetlerin gerçek sahibi olan.</t>
+  </si>
+  <si>
+    <t>Er-Reşid</t>
+  </si>
+  <si>
+    <t>Bütün işleri ezeli takdirine uygun bir nizam ve hikmet üzere sonuna ulaştıran.</t>
+  </si>
+  <si>
+    <t>Es-Sabûr</t>
+  </si>
+  <si>
+    <t>Çok sabırlı olan.</t>
+  </si>
+  <si>
+    <t>eşi benzeri olmayan tek yaratıcı</t>
+  </si>
+  <si>
+    <t>اَللَّهُ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,14 +652,7 @@
     </font>
     <font>
       <b/>
-      <sz val="26"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="26"/>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -82,14 +660,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -97,36 +668,22 @@
     </font>
     <font>
       <b/>
-      <sz val="26"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Display"/>
+      <sz val="72"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Display"/>
-      <family val="2"/>
-      <scheme val="major"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="26"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -134,53 +691,20 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -515,37 +1039,820 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169D02FE-2490-4A36-BC86-DF3D8E3737B4}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14E0EA2-864E-4427-AE73-BA934C3F9A04}">
+  <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="48.42578125" defaultRowHeight="34.5" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="48.42578125" style="2"/>
+    <col min="1" max="1" width="37.7109375" customWidth="1"/>
+    <col min="2" max="2" width="70.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" ht="57" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>2</v>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>144</v>
+      </c>
+      <c r="B74" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>148</v>
+      </c>
+      <c r="B76" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>150</v>
+      </c>
+      <c r="B77" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>152</v>
+      </c>
+      <c r="B78" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>154</v>
+      </c>
+      <c r="B79" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>156</v>
+      </c>
+      <c r="B80" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>158</v>
+      </c>
+      <c r="B81" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>160</v>
+      </c>
+      <c r="B82" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>162</v>
+      </c>
+      <c r="B83" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>164</v>
+      </c>
+      <c r="B84" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>166</v>
+      </c>
+      <c r="B85" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>168</v>
+      </c>
+      <c r="B86" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>170</v>
+      </c>
+      <c r="B87" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>172</v>
+      </c>
+      <c r="B88" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>174</v>
+      </c>
+      <c r="B89" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>176</v>
+      </c>
+      <c r="B90" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>178</v>
+      </c>
+      <c r="B91" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>180</v>
+      </c>
+      <c r="B92" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>182</v>
+      </c>
+      <c r="B93" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>184</v>
+      </c>
+      <c r="B94" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>186</v>
+      </c>
+      <c r="B95" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>188</v>
+      </c>
+      <c r="B96" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>190</v>
+      </c>
+      <c r="B97" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>192</v>
+      </c>
+      <c r="B98" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>194</v>
+      </c>
+      <c r="B99" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>196</v>
+      </c>
+      <c r="B100" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>